--- a/Pokemon Stuff + Monte/Monte Carlo Graph/PokemonGraph.xlsx
+++ b/Pokemon Stuff + Monte/Monte Carlo Graph/PokemonGraph.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Documents/Stockton/Spring 2024/Stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Documents/Stockton/Spring 2024/Stats/Stats Project One/Pokemon Stuff + Monte/Monte Carlo Graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C118D83F-0A48-734E-AED3-B1D6A4465107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D111BB46-28ED-E442-8553-63659C8FC59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{8730988A-D3E6-9F4C-B689-331D85823820}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$5:$A$65</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$5:$B$65</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$68:$A$69</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$70:$A$74</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$68:$B$69</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$70:$B$74</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Pokemon in Deck</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Percentage of Having Pokemon in Hand From Deck</t>
+  </si>
+  <si>
+    <t>Conditional Probability</t>
+  </si>
+  <si>
+    <t>Rare Candy Cards</t>
+  </si>
+  <si>
+    <t>P(Bbricked Deck)</t>
   </si>
 </sst>
 </file>
@@ -106,13 +115,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,6 +991,326 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$68:$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Conditional Probability</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P(Bbricked Deck)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$70:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$70:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.9096999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7039999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4100000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5004-D14F-A288-6D744FDCADEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1165656255"/>
+        <c:axId val="592734559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1165656255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592734559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="592734559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1165656255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -1013,6 +1348,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
@@ -1511,6 +1886,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1553,6 +2444,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>149330</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>781539</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>13956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A83F5AC-67A0-8FE1-2F4B-5710D2C7B1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1568,9 +2495,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1608,7 +2535,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1714,7 +2641,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1856,7 +2783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1864,16 +2791,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA080BD-1E41-DB41-A565-6FC0FB4D9282}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2367,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>60</v>
       </c>
@@ -2375,9 +3303,79 @@
         <v>1</v>
       </c>
     </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>1</v>
+      </c>
+      <c r="B70" s="6">
+        <v>8.9096999999999996E-2</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>2</v>
+      </c>
+      <c r="B71" s="6">
+        <v>7.7039999999999999E-3</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6">
+        <v>5.4100000000000003E-4</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>4</v>
+      </c>
+      <c r="B73" s="6">
+        <v>3.4E-5</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Pokemon Stuff + Monte/Monte Carlo Graph/PokemonGraph.xlsx
+++ b/Pokemon Stuff + Monte/Monte Carlo Graph/PokemonGraph.xlsx
@@ -8,19 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Documents/Stockton/Spring 2024/Stats/Stats Project One/Pokemon Stuff + Monte/Monte Carlo Graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D111BB46-28ED-E442-8553-63659C8FC59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C829FF6D-72C3-264B-9FD1-A86A73A4476F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{8730988A-D3E6-9F4C-B689-331D85823820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$68:$A$69</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$70:$A$74</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$68:$B$69</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$70:$B$74</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -115,19 +109,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2411,15 +2403,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>137396</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>186080</xdr:rowOff>
+      <xdr:colOff>416518</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>13956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>209340</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>795495</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2446,16 +2438,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>149330</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>181429</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209340</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>167470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>781539</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>13956</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101877</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>13955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2791,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA080BD-1E41-DB41-A565-6FC0FB4D9282}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="91" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2810,10 +2802,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3304,73 +3296,62 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+      <c r="A69" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70">
         <v>1</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="3">
         <v>8.9096999999999996E-2</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71">
         <v>2</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="3">
         <v>7.7039999999999999E-3</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72">
         <v>3</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="3">
         <v>5.4100000000000003E-4</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73">
         <v>4</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="3">
         <v>3.4E-5</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
